--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danii\OneDrive\Desktop\Учеба\2 курс\2 семестр\Курсач\LineClippingAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B03018-5A72-42EC-A8ED-271F8DBF0439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7300F7-1C57-44BC-9AB9-8D92041588CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Частично видимые отрезки" sheetId="2" r:id="rId1"/>
+    <sheet name="Полностью видимые отрезки" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Сазерленд</t>
   </si>
@@ -62,15 +63,56 @@
   <si>
     <t>Бек без нормалей</t>
   </si>
+  <si>
+    <t>Отношение скорости</t>
+  </si>
+  <si>
+    <t>Всего итераций</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Невидимый</t>
+  </si>
+  <si>
+    <t>3 зоны</t>
+  </si>
+  <si>
+    <t>Частично видимый (Бек)</t>
+  </si>
+  <si>
+    <t>Частично видимый (Сазерленд)</t>
+  </si>
+  <si>
+    <t>5 зон</t>
+  </si>
+  <si>
+    <t>Случаные отрезки</t>
+  </si>
+  <si>
+    <t>Коэн-Сазерленд</t>
+  </si>
+  <si>
+    <t>Кирус-Бек</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,16 +150,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,7 +300,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>'Частично видимые отрезки'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -285,7 +339,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$11</c:f>
+              <c:f>'Частично видимые отрезки'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -361,7 +415,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$2:$F$11</c:f>
+              <c:f>'Частично видимые отрезки'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -437,7 +491,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$2:$J$11</c:f>
+              <c:f>'Частично видимые отрезки'!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -803,7 +857,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$11</c:f>
+              <c:f>'Частично видимые отрезки'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -885,7 +939,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$2:$G$11</c:f>
+              <c:f>'Частично видимые отрезки'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -979,7 +1033,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$K$2:$K$11</c15:sqref>
+                          <c15:sqref>'Частично видимые отрезки'!$K$2:$K$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1219,6 +1273,477 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время работы алгоритма для разных многоугольников</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Полностью видимые отрезки'!$A$13:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Полностью видимые отрезки'!$C$13:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1014-4CCD-8014-E3CF6E6AEB93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="517812560"/>
+        <c:axId val="515113760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517812560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ребер у многоугольника</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515113760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="515113760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время выполнения 1000 итераций</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517812560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1296,6 +1821,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1800,6 +2365,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2371,6 +3439,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B85D98B-57F3-4B30-B8B9-431394D6ABE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2642,10 +3751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D878B3-25A8-4060-B4C2-AC8E903F33DF}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,9 +3763,10 @@
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2687,8 +3797,11 @@
       <c r="M1" t="s">
         <v>7</v>
       </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -2706,7 +3819,7 @@
         <v>1513</v>
       </c>
       <c r="G2" s="1">
-        <f>(E2/F2)*1000</f>
+        <f t="shared" ref="G2:G11" si="0">(E2/F2)*1000</f>
         <v>660.93853271645742</v>
       </c>
       <c r="I2">
@@ -2723,8 +3836,12 @@
         <f>(K2-G2)</f>
         <v>63.699148442962837</v>
       </c>
+      <c r="O2" s="4">
+        <f>(G2/C2)</f>
+        <v>0.39854593522802384</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -2732,7 +3849,7 @@
         <v>1171</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C23" si="0">(A3/B3)*1000</f>
+        <f t="shared" ref="C3:C11" si="1">(A3/B3)*1000</f>
         <v>1707.9419299743809</v>
       </c>
       <c r="E3">
@@ -2742,7 +3859,7 @@
         <v>3281</v>
       </c>
       <c r="G3" s="1">
-        <f>(E3/F3)*1000</f>
+        <f t="shared" si="0"/>
         <v>609.57025297165501</v>
       </c>
       <c r="I3">
@@ -2752,15 +3869,19 @@
         <v>2356</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K11" si="1">(I3/J3)*1000</f>
+        <f t="shared" ref="K3:K11" si="2">(I3/J3)*1000</f>
         <v>848.89643463497453</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M11" si="2">(K3-G3)</f>
+        <f t="shared" ref="M3:M11" si="3">(K3-G3)</f>
         <v>239.32618166331952</v>
       </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O11" si="4">(G3/C3)</f>
+        <v>0.35690338311490399</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -2768,7 +3889,7 @@
         <v>1756</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1708.4282460136676</v>
       </c>
       <c r="E4">
@@ -2778,7 +3899,7 @@
         <v>4457</v>
       </c>
       <c r="G4" s="1">
-        <f>(E4/F4)*1000</f>
+        <f t="shared" si="0"/>
         <v>673.09849674669067</v>
       </c>
       <c r="I4">
@@ -2788,15 +3909,19 @@
         <v>4028</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>744.78649453823243</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71.687997791541761</v>
       </c>
+      <c r="O4" s="4">
+        <f t="shared" si="4"/>
+        <v>0.39398698676239624</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -2804,7 +3929,7 @@
         <v>2356</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1697.7928692699491</v>
       </c>
       <c r="E5">
@@ -2814,7 +3939,7 @@
         <v>6487</v>
       </c>
       <c r="G5" s="1">
-        <f>(E5/F5)*1000</f>
+        <f t="shared" si="0"/>
         <v>616.61785108678896</v>
       </c>
       <c r="I5">
@@ -2824,15 +3949,19 @@
         <v>5133</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>779.27138125852321</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162.65353017173425</v>
       </c>
+      <c r="O5" s="4">
+        <f t="shared" si="4"/>
+        <v>0.36318791429011871</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -2840,7 +3969,7 @@
         <v>2933</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1704.7391749062392</v>
       </c>
       <c r="E6">
@@ -2850,7 +3979,7 @@
         <v>8079</v>
       </c>
       <c r="G6" s="1">
-        <f>(E6/F6)*1000</f>
+        <f t="shared" si="0"/>
         <v>618.88847629657141</v>
       </c>
       <c r="I6">
@@ -2860,15 +3989,19 @@
         <v>6555</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>762.77650648360031</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143.8880301870289</v>
       </c>
+      <c r="O6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.36303998019556882</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -2876,7 +4009,7 @@
         <v>3506</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1711.3519680547633</v>
       </c>
       <c r="E7">
@@ -2886,7 +4019,7 @@
         <v>9379</v>
       </c>
       <c r="G7" s="1">
-        <f>(E7/F7)*1000</f>
+        <f t="shared" si="0"/>
         <v>639.72704979208868</v>
       </c>
       <c r="I7">
@@ -2896,15 +4029,19 @@
         <v>8271</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>725.42618788538266</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85.699138093293982</v>
       </c>
+      <c r="O7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.37381383942851049</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7000</v>
       </c>
@@ -2912,7 +4049,7 @@
         <v>4082</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1714.8456638902499</v>
       </c>
       <c r="E8">
@@ -2922,7 +4059,7 @@
         <v>11120</v>
       </c>
       <c r="G8" s="1">
-        <f>(E8/F8)*1000</f>
+        <f t="shared" si="0"/>
         <v>629.49640287769785</v>
       </c>
       <c r="I8">
@@ -2932,15 +4069,19 @@
         <v>9507</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>736.29956873882406</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106.80316586112622</v>
       </c>
+      <c r="O8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.36708633093525178</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8000</v>
       </c>
@@ -2948,7 +4089,7 @@
         <v>4683</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1708.306641042067</v>
       </c>
       <c r="E9">
@@ -2958,7 +4099,7 @@
         <v>12523</v>
       </c>
       <c r="G9" s="1">
-        <f>(E9/F9)*1000</f>
+        <f t="shared" si="0"/>
         <v>638.82456280443978</v>
       </c>
       <c r="I9">
@@ -2968,15 +4109,19 @@
         <v>9568</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>836.1204013377926</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>197.29583853335282</v>
       </c>
+      <c r="O9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.37395192845164893</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9000</v>
       </c>
@@ -2984,7 +4129,7 @@
         <v>5548</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1622.2062004325883</v>
       </c>
       <c r="E10">
@@ -2994,7 +4139,7 @@
         <v>14079</v>
       </c>
       <c r="G10" s="1">
-        <f>(E10/F10)*1000</f>
+        <f t="shared" si="0"/>
         <v>639.24994672917114</v>
       </c>
       <c r="I10">
@@ -3004,15 +4149,19 @@
         <v>10685</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>842.30229293401965</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>203.0523462048485</v>
       </c>
+      <c r="O10" s="4">
+        <f t="shared" si="4"/>
+        <v>0.39406207827260464</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -3020,7 +4169,7 @@
         <v>6210</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1610.3059581320451</v>
       </c>
       <c r="E11">
@@ -3030,7 +4179,7 @@
         <v>15794</v>
       </c>
       <c r="G11" s="1">
-        <f>(E11/F11)*1000</f>
+        <f t="shared" si="0"/>
         <v>633.15182980878819</v>
       </c>
       <c r="I11">
@@ -3040,15 +4189,19 @@
         <v>12667</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>789.45290913397014</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156.30107932518195</v>
       </c>
+      <c r="O11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.39318728631125743</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3061,6 +4214,255 @@
       <c r="M12" s="2">
         <f>AVERAGE(M2:M11)</f>
         <v>143.04064562743906</v>
+      </c>
+      <c r="O12" s="5">
+        <f>(AVERAGE(O2:O11))</f>
+        <v>0.3777765662990285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="3">
+        <f>(M12/AVERAGE(G2:G11))</f>
+        <v>0.22492211585825289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF4805E-A7E9-4FCD-9121-983B2E67DDE3}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>5951</v>
+      </c>
+      <c r="C2">
+        <v>6149</v>
+      </c>
+      <c r="D2">
+        <f>(C2-B2)/10000</f>
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2*10000/B2</f>
+        <v>3.327171903881701E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5">
+        <v>5469</v>
+      </c>
+      <c r="C5">
+        <v>5690</v>
+      </c>
+      <c r="D5">
+        <f>(C5-B5)/10000</f>
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f>D5*10000/B5</f>
+        <v>4.0409581276284516E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>2941</v>
+      </c>
+      <c r="E8" s="4">
+        <f>(C9-C8)/C9</f>
+        <v>0.38382568615126755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>4773</v>
+      </c>
+      <c r="E9" s="6">
+        <f>(C9-C8)/1000</f>
+        <v>1.8320000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>AVERAGE(C13:C20)</f>
+        <v>1809.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>6811</v>
+      </c>
+      <c r="C23">
+        <f>(B24-B23)/B23</f>
+        <v>0.18059022170019087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>8041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
